--- a/mbs-perturbation/chatty/MLP/smote/chatty-mlp-smote-results.xlsx
+++ b/mbs-perturbation/chatty/MLP/smote/chatty-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7636986301369864</v>
+        <v>0.825</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9653679653679653</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8527724665391969</v>
+        <v>0.9041095890410958</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9369753434970827</v>
+        <v>0.927536231884058</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8984375</v>
+        <v>0.9745762711864406</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9465020576131687</v>
+        <v>0.9871244635193133</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999905891210239</v>
+        <v>0.9998306041784303</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.950207468879668</v>
+        <v>0.9504132231404959</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9956521739130435</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9723991507430998</v>
+        <v>0.9745762711864406</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9882986767485823</v>
+        <v>0.9869187145557656</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9783549783549783</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9826086956521739</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9804772234273318</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9986578449905482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.991304347826087</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.991304347826087</v>
       </c>
       <c r="D6" t="n">
-        <v>0.989247311827957</v>
+        <v>0.991304347826087</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9964083175803403</v>
+        <v>0.9924952741020794</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9138843963253903</v>
+        <v>0.9473929675648037</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9887257669866365</v>
+        <v>0.9982608695652175</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9482796420301508</v>
+        <v>0.9709890948351948</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9840492148053585</v>
+        <v>0.9813561649440666</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/MLP/smote/chatty-mlp-smote-results.xlsx
+++ b/mbs-perturbation/chatty/MLP/smote/chatty-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.825</v>
+        <v>0.7695167286245354</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9041095890410958</v>
+        <v>0.869747899159664</v>
       </c>
       <c r="E2" t="n">
-        <v>0.927536231884058</v>
+        <v>0.8498815496098104</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9745762711864406</v>
+        <v>0.9227272727272727</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9806763285024155</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9508196721311476</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998306041784303</v>
+        <v>0.9916620215533258</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9504132231404959</v>
+        <v>0.9483568075117371</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9711538461538461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9745762711864406</v>
+        <v>0.9596199524940617</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9869187145557656</v>
+        <v>0.9845085470085471</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9978308026030369</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.991304347826087</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="C6" t="n">
-        <v>0.991304347826087</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.991304347826087</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9924952741020794</v>
+        <v>0.9999299866974725</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9473929675648037</v>
+        <v>0.9262062861746229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9982608695652175</v>
+        <v>0.9903660349312524</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9709890948351948</v>
+        <v>0.9550759662954362</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9813561649440666</v>
+        <v>0.9651964209738312</v>
       </c>
     </row>
   </sheetData>
